--- a/data/trans_orig/P19C06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C1C6587-07E1-4B54-9930-8129CB7AFC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC1E85D9-9EEB-4E78-B747-9FFC3245EA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AC4C919-3EA5-4AA6-9C7A-6FF4B63E549E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AFD852CA-47B4-4047-9D34-2E949CEB9229}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="231">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,634 +77,652 @@
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>98,69%</t>
   </si>
   <si>
     <t>99,15%</t>
@@ -713,7 +731,7 @@
     <t>99,02%</t>
   </si>
   <si>
-    <t>99,22%</t>
+    <t>98,78%</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD4B8AA-0016-450A-BDDF-8C9114606BE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD3EAD-C6B2-4BAF-9376-42D6586781CA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1407,10 +1425,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -1419,13 +1437,13 @@
         <v>15493</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -1434,13 +1452,13 @@
         <v>27187</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,13 +1473,13 @@
         <v>1302754</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>1329</v>
@@ -1470,13 +1488,13 @@
         <v>1357702</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2598</v>
@@ -1485,13 +1503,13 @@
         <v>2660456</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,7 +1565,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1559,13 +1577,13 @@
         <v>4474</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1574,13 +1592,13 @@
         <v>7086</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -1589,13 +1607,13 @@
         <v>11561</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,16 +1625,16 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>446455</v>
+        <v>446454</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>381</v>
@@ -1625,13 +1643,13 @@
         <v>401697</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>807</v>
@@ -1640,13 +1658,13 @@
         <v>848151</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,7 +1676,7 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>450929</v>
+        <v>450928</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1714,13 +1732,13 @@
         <v>26937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -1729,13 +1747,13 @@
         <v>30986</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -1744,13 +1762,13 @@
         <v>57923</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1765,13 +1783,13 @@
         <v>2427805</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>2648</v>
@@ -1780,13 +1798,13 @@
         <v>2709951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>5028</v>
@@ -1795,13 +1813,13 @@
         <v>5137756</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,7 +1875,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1876,7 +1894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2466E4-AC07-4351-9223-678D155D3240}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B7F9A4-A820-44B8-B8DE-725EEC2CBA60}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1893,7 +1911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2000,13 +2018,13 @@
         <v>5127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2015,13 +2033,13 @@
         <v>14383</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -2030,13 +2048,13 @@
         <v>19510</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,13 +2069,13 @@
         <v>774047</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H5" s="7">
         <v>1038</v>
@@ -2066,13 +2084,13 @@
         <v>1113859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M5" s="7">
         <v>1766</v>
@@ -2081,13 +2099,13 @@
         <v>1887906</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2173,13 @@
         <v>17618</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -2170,13 +2188,13 @@
         <v>24438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -2185,13 +2203,13 @@
         <v>42055</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,13 +2224,13 @@
         <v>1670660</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>1454</v>
@@ -2221,13 +2239,13 @@
         <v>1564796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7">
         <v>3035</v>
@@ -2236,13 +2254,13 @@
         <v>3235456</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2316,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2310,13 +2328,13 @@
         <v>5534</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2325,13 +2343,13 @@
         <v>6346</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2340,13 +2358,13 @@
         <v>11880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,13 +2379,13 @@
         <v>436600</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="H11" s="7">
         <v>376</v>
@@ -2376,13 +2394,13 @@
         <v>417377</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>772</v>
@@ -2391,13 +2409,13 @@
         <v>853977</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2483,13 @@
         <v>28279</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -2480,13 +2498,13 @@
         <v>45167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -2495,13 +2513,13 @@
         <v>73445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2534,13 @@
         <v>2881307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>2868</v>
@@ -2531,13 +2549,13 @@
         <v>3096031</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>5573</v>
@@ -2546,13 +2564,13 @@
         <v>5977339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,7 +2626,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2627,7 +2645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29B6537-250D-4183-B66F-B2D253D83D9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B59090F-3531-4A5E-968D-C787DED7B0AC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2644,7 +2662,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2751,13 +2769,13 @@
         <v>4875</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2766,13 +2784,13 @@
         <v>10368</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -2781,13 +2799,13 @@
         <v>15243</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2820,13 @@
         <v>452544</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>572</v>
@@ -2817,13 +2835,13 @@
         <v>628506</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="M5" s="7">
         <v>1028</v>
@@ -2832,13 +2850,13 @@
         <v>1081051</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2924,13 @@
         <v>22701</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -2924,10 +2942,10 @@
         <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -2936,13 +2954,13 @@
         <v>42539</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2975,13 @@
         <v>1673904</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>1627</v>
@@ -2975,10 +2993,10 @@
         <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>3207</v>
@@ -2987,13 +3005,13 @@
         <v>3362785</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,7 +3067,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3061,13 +3079,13 @@
         <v>4027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3076,13 +3094,13 @@
         <v>8073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3091,13 +3109,13 @@
         <v>12100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3130,13 @@
         <v>495217</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>481</v>
@@ -3127,13 +3145,13 @@
         <v>500247</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>936</v>
@@ -3142,13 +3160,13 @@
         <v>995464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3234,13 @@
         <v>31603</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -3231,13 +3249,13 @@
         <v>38279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -3246,13 +3264,13 @@
         <v>69882</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3300,13 @@
         <v>2817634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>5171</v>
@@ -3297,13 +3315,13 @@
         <v>5439300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,7 +3377,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315D687B-9618-48EA-BF4F-2794C6142BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F596822B-2817-4A93-B2C5-FC1C02BEFCAE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3395,7 +3413,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3502,13 +3520,13 @@
         <v>7421</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -3517,13 +3535,13 @@
         <v>12099</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -3532,13 +3550,13 @@
         <v>19520</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3571,13 @@
         <v>503262</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
         <v>1352</v>
@@ -3568,13 +3586,13 @@
         <v>786625</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>1994</v>
@@ -3583,13 +3601,13 @@
         <v>1289887</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3675,13 @@
         <v>15234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3672,13 +3690,13 @@
         <v>18930</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -3687,13 +3705,13 @@
         <v>34165</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3726,13 @@
         <v>2081386</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>2823</v>
@@ -3723,13 +3741,13 @@
         <v>2187224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>4732</v>
@@ -3738,13 +3756,13 @@
         <v>4268610</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,7 +3818,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3812,13 +3830,13 @@
         <v>4638</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3827,13 +3845,13 @@
         <v>10067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3842,13 +3860,13 @@
         <v>14705</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3881,13 @@
         <v>656663</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>974</v>
@@ -3878,13 +3896,13 @@
         <v>693994</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>1639</v>
@@ -3893,13 +3911,13 @@
         <v>1350657</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3985,13 @@
         <v>27293</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -3982,13 +4000,13 @@
         <v>41096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -3997,13 +4015,13 @@
         <v>68390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4036,13 @@
         <v>3241311</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>5149</v>
@@ -4033,13 +4051,13 @@
         <v>3667844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>8365</v>
@@ -4048,13 +4066,13 @@
         <v>6909154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,7 +4128,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC1E85D9-9EEB-4E78-B747-9FFC3245EA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE427DE6-FF68-4305-9D76-AAEB819ADD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AFD852CA-47B4-4047-9D34-2E949CEB9229}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8B5781A-D07B-4DA2-A9F2-2C1FAE9692DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="237">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,661 +77,679 @@
     <t>1,56%</t>
   </si>
   <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>99,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD3EAD-C6B2-4BAF-9376-42D6586781CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F13658-794D-4566-850E-53903773129D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1425,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -1437,13 +1455,13 @@
         <v>15493</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -1452,13 +1470,13 @@
         <v>27187</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1473,13 +1491,13 @@
         <v>1302754</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1329</v>
@@ -1488,13 +1506,13 @@
         <v>1357702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2598</v>
@@ -1503,13 +1521,13 @@
         <v>2660456</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,7 +1583,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1577,13 +1595,13 @@
         <v>4474</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1592,13 +1610,13 @@
         <v>7086</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -1607,13 +1625,13 @@
         <v>11561</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1625,16 +1643,16 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>446454</v>
+        <v>446455</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>381</v>
@@ -1643,13 +1661,13 @@
         <v>401697</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>807</v>
@@ -1658,13 +1676,13 @@
         <v>848151</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1676,7 +1694,7 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>450928</v>
+        <v>450929</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1732,13 +1750,13 @@
         <v>26937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -1747,13 +1765,13 @@
         <v>30986</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -1762,13 +1780,13 @@
         <v>57923</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,13 +1801,13 @@
         <v>2427805</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>2648</v>
@@ -1798,13 +1816,13 @@
         <v>2709951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>5028</v>
@@ -1813,13 +1831,13 @@
         <v>5137756</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,7 +1893,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1894,7 +1912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B7F9A4-A820-44B8-B8DE-725EEC2CBA60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE0D159-3F59-4DD7-80E4-4EDB0186E1FB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1911,7 +1929,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2018,13 +2036,13 @@
         <v>5127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2033,13 +2051,13 @@
         <v>14383</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -2048,13 +2066,13 @@
         <v>19510</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,13 +2087,13 @@
         <v>774047</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>1038</v>
@@ -2084,13 +2102,13 @@
         <v>1113859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>1766</v>
@@ -2099,13 +2117,13 @@
         <v>1887906</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2191,13 @@
         <v>17618</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -2188,13 +2206,13 @@
         <v>24438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -2203,13 +2221,13 @@
         <v>42055</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2242,13 @@
         <v>1670660</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>1454</v>
@@ -2239,13 +2257,13 @@
         <v>1564796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>3035</v>
@@ -2254,13 +2272,13 @@
         <v>3235456</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,7 +2334,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2328,13 +2346,13 @@
         <v>5534</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2343,13 +2361,13 @@
         <v>6346</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2358,13 +2376,13 @@
         <v>11880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2397,13 @@
         <v>436600</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H11" s="7">
         <v>376</v>
@@ -2394,13 +2412,13 @@
         <v>417377</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>772</v>
@@ -2409,13 +2427,13 @@
         <v>853977</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2501,13 @@
         <v>28279</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -2498,13 +2516,13 @@
         <v>45167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -2513,13 +2531,13 @@
         <v>73445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2552,13 @@
         <v>2881307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>2868</v>
@@ -2549,13 +2567,13 @@
         <v>3096031</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>5573</v>
@@ -2564,13 +2582,13 @@
         <v>5977339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,7 +2644,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2645,7 +2663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B59090F-3531-4A5E-968D-C787DED7B0AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8166A7E6-8882-414B-BC1D-B09943E64E14}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2662,7 +2680,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2769,13 +2787,13 @@
         <v>4875</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2784,13 +2802,13 @@
         <v>10368</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -2799,13 +2817,13 @@
         <v>15243</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2838,13 @@
         <v>452544</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
         <v>572</v>
@@ -2835,13 +2853,13 @@
         <v>628506</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>1028</v>
@@ -2850,13 +2868,13 @@
         <v>1081051</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2942,13 @@
         <v>22701</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -2942,10 +2960,10 @@
         <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -2954,13 +2972,13 @@
         <v>42539</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2993,13 @@
         <v>1673904</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>1627</v>
@@ -2993,10 +3011,10 @@
         <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>3207</v>
@@ -3005,13 +3023,13 @@
         <v>3362785</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,7 +3085,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3079,13 +3097,13 @@
         <v>4027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3094,13 +3112,13 @@
         <v>8073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3109,13 +3127,13 @@
         <v>12100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3148,13 @@
         <v>495217</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>481</v>
@@ -3145,13 +3163,13 @@
         <v>500247</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>936</v>
@@ -3160,13 +3178,13 @@
         <v>995464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3252,13 @@
         <v>31603</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -3249,13 +3267,13 @@
         <v>38279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -3264,13 +3282,13 @@
         <v>69882</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3303,13 @@
         <v>2621666</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>2680</v>
@@ -3300,13 +3318,13 @@
         <v>2817634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
         <v>5171</v>
@@ -3315,13 +3333,13 @@
         <v>5439300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,7 +3395,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3396,7 +3414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F596822B-2817-4A93-B2C5-FC1C02BEFCAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B205769C-4E1E-4478-B9D6-A012BBFEB6D0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3413,7 +3431,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3520,13 +3538,13 @@
         <v>7421</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -3535,13 +3553,13 @@
         <v>12099</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -3550,13 +3568,13 @@
         <v>19520</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3589,13 @@
         <v>503262</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>1352</v>
@@ -3586,10 +3604,10 @@
         <v>786625</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -3601,13 +3619,13 @@
         <v>1289887</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3693,13 @@
         <v>15234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3690,13 +3708,13 @@
         <v>18930</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -3705,13 +3723,13 @@
         <v>34165</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3744,13 @@
         <v>2081386</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
         <v>2823</v>
@@ -3741,13 +3759,13 @@
         <v>2187224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="M8" s="7">
         <v>4732</v>
@@ -3756,13 +3774,13 @@
         <v>4268610</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,7 +3836,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3830,13 +3848,13 @@
         <v>4638</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3845,13 +3863,13 @@
         <v>10067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3860,13 +3878,13 @@
         <v>14705</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3899,13 @@
         <v>656663</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H11" s="7">
         <v>974</v>
@@ -3896,13 +3914,13 @@
         <v>693994</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>1639</v>
@@ -3911,13 +3929,13 @@
         <v>1350657</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +4003,13 @@
         <v>27293</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -4000,13 +4018,13 @@
         <v>41096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4015,13 +4033,13 @@
         <v>68390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4054,13 @@
         <v>3241311</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>5149</v>
@@ -4051,13 +4069,13 @@
         <v>3667844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>8365</v>
@@ -4066,13 +4084,13 @@
         <v>6909154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>29</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,7 +4146,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE427DE6-FF68-4305-9D76-AAEB819ADD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD6B55DF-797A-4925-80FF-23B8D7055425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8B5781A-D07B-4DA2-A9F2-2C1FAE9692DA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C54D3D6A-2524-4865-A04F-133690AFDB0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="225">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,685 +71,649 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F13658-794D-4566-850E-53903773129D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EBF155-BC1E-4E23-B4A4-0FCA90B358C3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1628,10 +1592,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,13 +1610,13 @@
         <v>446455</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>381</v>
@@ -1661,13 +1625,13 @@
         <v>401697</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>807</v>
@@ -1676,13 +1640,13 @@
         <v>848151</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,13 +1714,13 @@
         <v>26937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -1768,10 +1732,10 @@
         <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -1780,13 +1744,13 @@
         <v>57923</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,13 +1765,13 @@
         <v>2427805</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>2648</v>
@@ -1819,10 +1783,10 @@
         <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>5028</v>
@@ -1831,13 +1795,13 @@
         <v>5137756</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,7 +1857,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1912,7 +1876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE0D159-3F59-4DD7-80E4-4EDB0186E1FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11649C0E-FF7A-4719-83D3-10613F941B35}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1929,7 +1893,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2036,13 +2000,13 @@
         <v>5127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2051,10 +2015,10 @@
         <v>14383</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>88</v>
@@ -2072,7 +2036,7 @@
         <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,7 +2051,7 @@
         <v>774047</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>92</v>
@@ -2108,7 +2072,7 @@
         <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="M5" s="7">
         <v>1766</v>
@@ -2117,10 +2081,10 @@
         <v>1887906</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>98</v>
@@ -2227,7 +2191,7 @@
         <v>106</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2206,13 @@
         <v>1670660</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
         <v>1454</v>
@@ -2257,13 +2221,13 @@
         <v>1564796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>3035</v>
@@ -2272,13 +2236,13 @@
         <v>3235456</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,13 +2310,13 @@
         <v>5534</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2361,7 +2325,7 @@
         <v>6346</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>119</v>
@@ -2403,7 +2367,7 @@
         <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>376</v>
@@ -2412,13 +2376,13 @@
         <v>417377</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>772</v>
@@ -2427,13 +2391,13 @@
         <v>853977</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,13 +2465,13 @@
         <v>28279</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -2516,13 +2480,13 @@
         <v>45167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -2531,13 +2495,13 @@
         <v>73445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2516,13 @@
         <v>2881307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="H14" s="7">
         <v>2868</v>
@@ -2567,13 +2531,13 @@
         <v>3096031</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="M14" s="7">
         <v>5573</v>
@@ -2582,13 +2546,13 @@
         <v>5977339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,7 +2608,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2663,7 +2627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8166A7E6-8882-414B-BC1D-B09943E64E14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45460B39-76F7-4421-B376-4E2B1C9EC047}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2680,7 +2644,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2787,13 +2751,13 @@
         <v>4875</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2802,13 +2766,13 @@
         <v>10368</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -2817,13 +2781,13 @@
         <v>15243</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2802,13 @@
         <v>452544</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>572</v>
@@ -2853,13 +2817,13 @@
         <v>628506</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>1028</v>
@@ -2868,13 +2832,13 @@
         <v>1081051</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,10 +2909,10 @@
         <v>57</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -2960,10 +2924,10 @@
         <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -2972,13 +2936,13 @@
         <v>42539</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2957,13 @@
         <v>1673904</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
         <v>1627</v>
@@ -3011,10 +2975,10 @@
         <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>3207</v>
@@ -3026,10 +2990,10 @@
         <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3061,13 @@
         <v>4027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3112,13 +3076,13 @@
         <v>8073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3127,13 +3091,13 @@
         <v>12100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3112,13 @@
         <v>495217</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>481</v>
@@ -3163,13 +3127,13 @@
         <v>500247</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>936</v>
@@ -3178,13 +3142,13 @@
         <v>995464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3216,13 @@
         <v>31603</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -3270,10 +3234,10 @@
         <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -3282,13 +3246,13 @@
         <v>69882</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3267,13 @@
         <v>2621666</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>2680</v>
@@ -3318,13 +3282,13 @@
         <v>2817634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>5171</v>
@@ -3336,10 +3300,10 @@
         <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,7 +3359,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3414,7 +3378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B205769C-4E1E-4478-B9D6-A012BBFEB6D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3074F9-054D-4395-8BD9-DB0FF971BD3D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3431,7 +3395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3538,13 +3502,13 @@
         <v>7421</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -3553,13 +3517,13 @@
         <v>12099</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -3568,13 +3532,13 @@
         <v>19520</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3553,13 @@
         <v>503262</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>1352</v>
@@ -3604,13 +3568,13 @@
         <v>786625</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="M5" s="7">
         <v>1994</v>
@@ -3619,13 +3583,13 @@
         <v>1289887</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,10 +3660,10 @@
         <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3708,13 +3672,13 @@
         <v>18930</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -3723,13 +3687,13 @@
         <v>34165</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3708,13 @@
         <v>2081386</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>2823</v>
@@ -3759,13 +3723,13 @@
         <v>2187224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>4732</v>
@@ -3774,13 +3738,13 @@
         <v>4268610</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3812,13 @@
         <v>4638</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3863,13 +3827,13 @@
         <v>10067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3878,13 +3842,13 @@
         <v>14705</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3863,13 @@
         <v>656663</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>974</v>
@@ -3914,13 +3878,13 @@
         <v>693994</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="M11" s="7">
         <v>1639</v>
@@ -3929,13 +3893,13 @@
         <v>1350657</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +3967,13 @@
         <v>27293</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -4018,13 +3982,13 @@
         <v>41096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4033,13 +3997,13 @@
         <v>68390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4018,13 @@
         <v>3241311</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>5149</v>
@@ -4069,13 +4033,13 @@
         <v>3667844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>8365</v>
@@ -4084,13 +4048,13 @@
         <v>6909154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,7 +4110,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD6B55DF-797A-4925-80FF-23B8D7055425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9649347-64E4-435E-8DA7-FF34029C4DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C54D3D6A-2524-4865-A04F-133690AFDB0F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A5E5FC39-2051-4263-AEA6-87619B98B6ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="223">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -596,82 +596,88 @@
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,74%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>99,76%</t>
@@ -680,40 +686,28 @@
     <t>98,57%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EBF155-BC1E-4E23-B4A4-0FCA90B358C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008051D7-EAB9-4BAE-B6EF-F15F582024FC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1876,7 +1870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11649C0E-FF7A-4719-83D3-10613F941B35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2329FD-859F-45F9-8316-2A7645548B80}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2078,7 +2072,7 @@
         <v>1766</v>
       </c>
       <c r="N5" s="7">
-        <v>1887906</v>
+        <v>1887905</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>96</v>
@@ -2129,7 +2123,7 @@
         <v>1785</v>
       </c>
       <c r="N6" s="7">
-        <v>1907416</v>
+        <v>1907415</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2218,7 +2212,7 @@
         <v>1454</v>
       </c>
       <c r="I8" s="7">
-        <v>1564796</v>
+        <v>1564795</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>111</v>
@@ -2269,7 +2263,7 @@
         <v>1476</v>
       </c>
       <c r="I9" s="7">
-        <v>1589234</v>
+        <v>1589233</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2627,7 +2621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45460B39-76F7-4421-B376-4E2B1C9EC047}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D6AA72-C405-40E3-8B84-6A7068829508}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2829,7 +2823,7 @@
         <v>1028</v>
       </c>
       <c r="N5" s="7">
-        <v>1081051</v>
+        <v>1081050</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>156</v>
@@ -2880,7 +2874,7 @@
         <v>1043</v>
       </c>
       <c r="N6" s="7">
-        <v>1096294</v>
+        <v>1096293</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3378,7 +3372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3074F9-054D-4395-8BD9-DB0FF971BD3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A3C8EB-88A5-4767-9ED6-38E669D020C1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3499,7 +3493,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>7421</v>
+        <v>8767</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>185</v>
@@ -3508,34 +3502,34 @@
         <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>12099</v>
+        <v>11320</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>19520</v>
+        <v>20087</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>189</v>
@@ -3550,46 +3544,46 @@
         <v>642</v>
       </c>
       <c r="D5" s="7">
-        <v>503262</v>
+        <v>475674</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H5" s="7">
         <v>1352</v>
       </c>
       <c r="I5" s="7">
-        <v>786625</v>
+        <v>710296</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>1994</v>
       </c>
       <c r="N5" s="7">
-        <v>1289887</v>
+        <v>1185970</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3595,7 @@
         <v>648</v>
       </c>
       <c r="D6" s="7">
-        <v>510683</v>
+        <v>484441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3616,7 +3610,7 @@
         <v>1370</v>
       </c>
       <c r="I6" s="7">
-        <v>798724</v>
+        <v>721616</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3631,7 +3625,7 @@
         <v>2018</v>
       </c>
       <c r="N6" s="7">
-        <v>1309407</v>
+        <v>1206057</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3654,46 +3648,46 @@
         <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>15234</v>
+        <v>14793</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>18930</v>
+        <v>17150</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>34165</v>
+        <v>31942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,46 +3699,46 @@
         <v>1909</v>
       </c>
       <c r="D8" s="7">
-        <v>2081386</v>
+        <v>2215744</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>2823</v>
       </c>
       <c r="I8" s="7">
-        <v>2187224</v>
+        <v>2180756</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>4732</v>
       </c>
       <c r="N8" s="7">
-        <v>4268610</v>
+        <v>4396500</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,7 +3750,7 @@
         <v>1923</v>
       </c>
       <c r="D9" s="7">
-        <v>2096620</v>
+        <v>2230537</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3771,7 +3765,7 @@
         <v>2849</v>
       </c>
       <c r="I9" s="7">
-        <v>2206154</v>
+        <v>2197906</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3786,7 +3780,7 @@
         <v>4772</v>
       </c>
       <c r="N9" s="7">
-        <v>4302775</v>
+        <v>4428442</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3809,46 +3803,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>4638</v>
+        <v>4267</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>10067</v>
+        <v>9303</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>14705</v>
+        <v>13570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,46 +3854,46 @@
         <v>665</v>
       </c>
       <c r="D11" s="7">
-        <v>656663</v>
+        <v>627049</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>974</v>
       </c>
       <c r="I11" s="7">
-        <v>693994</v>
+        <v>642308</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>1639</v>
       </c>
       <c r="N11" s="7">
-        <v>1350657</v>
+        <v>1269357</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,7 +3905,7 @@
         <v>670</v>
       </c>
       <c r="D12" s="7">
-        <v>661301</v>
+        <v>631316</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3926,7 +3920,7 @@
         <v>988</v>
       </c>
       <c r="I12" s="7">
-        <v>704061</v>
+        <v>651611</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3941,7 +3935,7 @@
         <v>1658</v>
       </c>
       <c r="N12" s="7">
-        <v>1365362</v>
+        <v>1282927</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3964,46 +3958,46 @@
         <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>27293</v>
+        <v>27826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
       </c>
       <c r="I13" s="7">
-        <v>41096</v>
+        <v>37773</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
       </c>
       <c r="N13" s="7">
-        <v>68390</v>
+        <v>65599</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,46 +4009,46 @@
         <v>3216</v>
       </c>
       <c r="D14" s="7">
-        <v>3241311</v>
+        <v>3318467</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>5149</v>
       </c>
       <c r="I14" s="7">
-        <v>3667844</v>
+        <v>3533360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>8365</v>
       </c>
       <c r="N14" s="7">
-        <v>6909154</v>
+        <v>6851827</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,7 +4060,7 @@
         <v>3241</v>
       </c>
       <c r="D15" s="7">
-        <v>3268604</v>
+        <v>3346293</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4081,7 +4075,7 @@
         <v>5207</v>
       </c>
       <c r="I15" s="7">
-        <v>3708940</v>
+        <v>3571133</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4096,7 +4090,7 @@
         <v>8448</v>
       </c>
       <c r="N15" s="7">
-        <v>6977544</v>
+        <v>6917426</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
